--- a/resultados_busqueda.xlsx
+++ b/resultados_busqueda.xlsx
@@ -451,42 +451,42 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Carrefour Precio Anterior</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Farmacity Precio Actual</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Farmacity Precio Anterior</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Libertad Precio Actual</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Libertad Precio Anterior</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Lider Precio Actual</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Lider Precio Anterior</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Super Mami Precio Actual</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Carrefour Precio Anterior</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Farmacity Precio Anterior</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Libertad Precio Anterior</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Lider Precio Anterior</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -511,34 +511,34 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>$ 1.200,00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>$ 1.194</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>$ 1.194</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>$ 999,00</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>$ 1.115,00</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>0</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>$ 1.200,00</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>$ 1.194</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>$ 1.115,00</t>
-        </is>
       </c>
       <c r="K2" t="n">
         <v>0</v>

--- a/resultados_busqueda.xlsx
+++ b/resultados_busqueda.xlsx
@@ -446,52 +446,52 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Carrefour Precio Actual</t>
+          <t>Carrefour Precio</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Carrefour Precio Anterior</t>
+          <t>Carrefour Precio s/ Dto</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Farmacity Precio Actual</t>
+          <t>Farmacity Precio</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Farmacity Precio Anterior</t>
+          <t>Farmacity Precio s/ Dto</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Libertad Precio Actual</t>
+          <t>Libertad Precio</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Libertad Precio Anterior</t>
+          <t>Libertad Precio s/ Dto</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Lider Precio Actual</t>
+          <t>Lider Precio</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Lider Precio Anterior</t>
+          <t>Lider Precio s/ Dto</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Super Mami Precio Actual</t>
+          <t>Super Mami Precio</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Super Mami Precio Anterior</t>
+          <t>Super Mami Precio s/ Dto</t>
         </is>
       </c>
     </row>
